--- a/outcome/fig1.xlsx
+++ b/outcome/fig1.xlsx
@@ -58,22 +58,22 @@
     <t xml:space="preserve">location_name</t>
   </si>
   <si>
-    <t xml:space="preserve">African Region</t>
+    <t xml:space="preserve">Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Mediterranean Region</t>
+    <t xml:space="preserve">Eastern Mediterranean</t>
   </si>
   <si>
-    <t xml:space="preserve">European Region</t>
+    <t xml:space="preserve">Europe</t>
   </si>
   <si>
-    <t xml:space="preserve">Region of the Americas</t>
+    <t xml:space="preserve">Americas</t>
   </si>
   <si>
-    <t xml:space="preserve">South-East Asia Region</t>
+    <t xml:space="preserve">South-East Asia</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Pacific Region</t>
+    <t xml:space="preserve">Western Pacific</t>
   </si>
 </sst>
 </file>
